--- a/target/classes/com/crm/qa/testdata/FreeCRMTestData.xlsx
+++ b/target/classes/com/crm/qa/testdata/FreeCRMTestData.xlsx
@@ -4,19 +4,20 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="120" yWindow="30" windowWidth="10515" windowHeight="7740"/>
+    <workbookView xWindow="0" yWindow="2445" windowWidth="17205" windowHeight="6660"/>
   </bookViews>
   <sheets>
     <sheet name="contacts" sheetId="1" r:id="rId1"/>
     <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
     <sheet name="Sheet3" sheetId="3" r:id="rId3"/>
   </sheets>
-  <calcPr calcId="145621"/>
+  <calcPr calcId="0"/>
+  <oleSize ref="A1"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="18">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="20" uniqueCount="19">
   <si>
     <t>title</t>
   </si>
@@ -69,7 +70,10 @@
     <t>Dr.</t>
   </si>
   <si>
-    <t>Krish</t>
+    <t>Scott</t>
+  </si>
+  <si>
+    <t>Mcdonald</t>
   </si>
 </sst>
 </file>
@@ -411,7 +415,7 @@
   <dimension ref="A1:D5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4"/>
+      <selection activeCell="D6" sqref="D6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -477,10 +481,10 @@
         <v>16</v>
       </c>
       <c r="B5" t="s">
-        <v>7</v>
+        <v>17</v>
       </c>
       <c r="C5" t="s">
-        <v>17</v>
+        <v>18</v>
       </c>
       <c r="D5" t="s">
         <v>6</v>
